--- a/hacking_the_simplespectro/experiments/Results_Blue53_Experiment_4.xlsx
+++ b/hacking_the_simplespectro/experiments/Results_Blue53_Experiment_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann\simple-spectro\hacking_the_simplespectro\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8DE117-8E94-40FD-8CBE-0C4D6B56F54E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE553E6-1E08-475A-B867-E8F13ABB643A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{2E15E8AD-55F4-4271-992C-880145D947C9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
   <si>
     <t>Measurements</t>
   </si>
@@ -112,6 +112,24 @@
   </si>
   <si>
     <t>mg</t>
+  </si>
+  <si>
+    <t>'0.01''</t>
+  </si>
+  <si>
+    <t>Abs. diff.</t>
+  </si>
+  <si>
+    <t>Abs. diff. norm.</t>
+  </si>
+  <si>
+    <t>thickness1</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>thickness2.1</t>
   </si>
 </sst>
 </file>
@@ -266,8 +284,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -283,25 +320,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -317,6 +336,2049 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Spectro 2 - difference</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> of absorbance (a_long - a_short)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17606162105118264"/>
+                  <c:y val="6.104467706770518E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.61538461538462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.733333333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.052631578947366</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$7:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26045823336598467</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25154963530871755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21199975763590578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21722748393309615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20366435656713794</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19025895747317095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17636194824712381</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14066272801085777</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16626928574961658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE41-46DB-8D0B-32B6E2A7A124}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="380076760"/>
+        <c:axId val="380078072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="380076760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="380078072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="380078072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="380076760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Spectro</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14195625546806648"/>
+                  <c:y val="-1.4305555555555556E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.61538461538462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.733333333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.052631578947366</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$7:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18490089520586642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18683325020676919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15903600709586133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14064178774352937</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1334605756954369</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11267710658005403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11075565496756012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12049934095481662</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9472918236205021E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8ED-4EA2-B221-558723D68716}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="442479296"/>
+        <c:axId val="442484872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="442479296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442484872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="442484872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442479296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>692368</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>148048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>141477</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>27710</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694CA82B-6D2F-4367-8FF8-7C0E0778BC82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF91708-5853-4740-B649-2E85D261E2F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -616,10 +2678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A654142-BD20-4976-A826-EE0681333006}">
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="55" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AB58" sqref="AB58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,120 +2690,129 @@
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:39" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AM1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
       <c r="AF2" t="s">
         <v>17</v>
       </c>
+      <c r="AL2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
       <c r="AF3" t="s">
         <v>23</v>
       </c>
@@ -751,43 +2822,50 @@
       <c r="AH3" t="s">
         <v>28</v>
       </c>
+      <c r="AL3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM3">
+        <f>34-23.5</f>
+        <v>10.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
       <c r="AF4" t="s">
         <v>24</v>
       </c>
@@ -798,865 +2876,1229 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="6" t="s">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="X5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Y5" s="6" t="s">
+      <c r="Y5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="Z5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AA5" s="6" t="s">
+      <c r="AA5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AB5" s="6" t="s">
+      <c r="AB5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AC5" s="6" t="s">
+      <c r="AC5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AF5" s="14" t="s">
+      <c r="AD5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AG5" s="14">
+      <c r="AG5" s="4">
         <v>0.5</v>
       </c>
-      <c r="AH5" s="14" t="s">
+      <c r="AH5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AI5" s="14" t="s">
+      <c r="AI5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>0</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="2">
         <v>207201</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="2">
         <v>207365</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="2">
         <f>AVERAGE(C6:D6)</f>
         <v>207283</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="2">
         <v>422160</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="2">
         <v>422428</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="2">
         <v>422491</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="2">
         <v>422498</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="2">
         <v>422648</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="2">
         <v>422600</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="2">
         <f>AVERAGE(H6:M6)</f>
         <v>422470.83333333331</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="2">
         <f>STDEV(H6:M6)</f>
         <v>171.85391082738462</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="13" t="s">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="2">
         <v>245963</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="2">
         <v>246162</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="2">
         <v>246251</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="2">
         <v>246250</v>
       </c>
-      <c r="W6" s="12">
+      <c r="W6" s="2">
         <v>246310</v>
       </c>
-      <c r="X6" s="12">
+      <c r="X6" s="2">
         <v>246318</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="Y6" s="2">
         <f>AVERAGE(S6:X6)</f>
         <v>246209</v>
       </c>
-      <c r="Z6" s="12">
+      <c r="Z6" s="2">
         <f>STDEV(S6:X6)</f>
         <v>132.85480796719403</v>
       </c>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="13" t="s">
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>600</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="2">
         <v>262044</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="2">
         <v>262393</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="2">
         <f t="shared" ref="E7:E16" si="0">AVERAGE(C7:D7)</f>
         <v>262218.5</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="2">
+        <f>LOG10(E$7/E7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="2">
         <v>218883</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="2">
         <v>218733</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="2">
         <v>218584</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="2">
         <v>218599</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="2">
         <v>218637</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="2">
         <v>218390</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="2">
         <f t="shared" ref="N7:N16" si="1">AVERAGE(H7:M7)</f>
         <v>218637.66666666666</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="2">
         <f t="shared" ref="O7:O16" si="2">STDEV(H7:M7)</f>
         <v>164.31149280152826</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="13" t="s">
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>LOG10(N$7/N7)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="2">
         <v>112873</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="2">
         <v>112772</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="2">
         <v>112812</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="2">
         <v>112786</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W7" s="2">
         <v>112774</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="2">
         <v>112751</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Y7" s="2">
         <f t="shared" ref="Y7:Y16" si="3">AVERAGE(S7:X7)</f>
         <v>112794.66666666667</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="Z7" s="2">
         <f t="shared" ref="Z7:Z16" si="4">STDEV(S7:X7)</f>
         <v>43.265074444251987</v>
       </c>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="13" t="s">
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <f>LOG10(Y$7/Y7)</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="AD7">
+        <f>AB7-Q7</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>600</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="2">
         <f>23.8/A8*1000</f>
         <v>39.666666666666671</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="2">
         <v>171212</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="2">
         <v>171392</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>171302</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:F16" si="5">LOG10(E$7/E8)</f>
+        <v>0.18490089520586642</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="2">
         <v>70377</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="2">
         <v>70482</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="2">
         <v>70443</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="2">
         <v>70532</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="2">
         <v>70586</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="2">
         <v>70612</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="2">
         <f t="shared" si="1"/>
         <v>70505.333333333328</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="2">
         <f t="shared" si="2"/>
         <v>88.876693607867011</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="13" t="s">
+      <c r="P8" s="2">
+        <f>1/LN(10)*SQRT((O$7/N$7)^2 +(O8/N8)^2)</f>
+        <v>6.3736583028953708E-4</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" ref="Q8:Q16" si="6">LOG10(N$7/N8)</f>
+        <v>0.49150301367712251</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="2">
         <v>19883</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="2">
         <v>19984</v>
       </c>
-      <c r="U8" s="12">
+      <c r="U8" s="2">
         <v>19968</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="2">
         <v>19989</v>
       </c>
-      <c r="W8" s="12">
+      <c r="W8" s="2">
         <v>19974</v>
       </c>
-      <c r="X8" s="12">
+      <c r="X8" s="2">
         <v>20008</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="Y8" s="2">
         <f t="shared" si="3"/>
         <v>19967.666666666668</v>
       </c>
-      <c r="Z8" s="12">
+      <c r="Z8" s="2">
         <f t="shared" si="4"/>
         <v>43.720323268094283</v>
       </c>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="13" t="s">
+      <c r="AA8" s="2">
+        <f>1/LN(10)*SQRT((Z$7/Y$7)^2 +(Z8/Y8)^2)</f>
+        <v>9.6539317043350796E-4</v>
+      </c>
+      <c r="AB8" s="2">
+        <f t="shared" ref="AB8:AB16" si="7">LOG10(Y$7/Y8)</f>
+        <v>0.75196124704310718</v>
+      </c>
+      <c r="AC8" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="AD8">
+        <f t="shared" ref="AD8:AD16" si="8">AB8-Q8</f>
+        <v>0.26045823336598467</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>650</v>
       </c>
-      <c r="B9" s="12">
-        <f t="shared" ref="B9:B16" si="5">23.8/A9*1000</f>
+      <c r="B9" s="2">
+        <f t="shared" ref="B9:B16" si="9">23.8/A9*1000</f>
         <v>36.61538461538462</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="2">
         <v>170551</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="2">
         <v>170532</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>170541.5</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="2">
+        <f t="shared" si="5"/>
+        <v>0.18683325020676919</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="2">
         <v>78120</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="2">
         <v>78333</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="2">
         <v>78339</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="2">
         <v>78401</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="2">
         <v>78564</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="2">
         <v>78446</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="2">
         <f t="shared" si="1"/>
         <v>78367.166666666672</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="2">
         <f t="shared" si="2"/>
         <v>147.75305975399178</v>
       </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="13" t="s">
+      <c r="P9" s="2">
+        <f t="shared" ref="P9:P16" si="10">1/LN(10)*SQRT((O$7/N$7)^2 +(O9/N9)^2)</f>
+        <v>8.8146831585879924E-4</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="6"/>
+        <v>0.44559083854499115</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="2">
         <v>22633</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="2">
         <v>22590</v>
       </c>
-      <c r="U9" s="12">
+      <c r="U9" s="2">
         <v>22618</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="2">
         <v>22635</v>
       </c>
-      <c r="W9" s="12">
+      <c r="W9" s="2">
         <v>22702</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9" s="2">
         <v>22747</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="Y9" s="2">
         <f t="shared" si="3"/>
         <v>22654.166666666668</v>
       </c>
-      <c r="Z9" s="12">
+      <c r="Z9" s="2">
         <f t="shared" si="4"/>
         <v>58.560794621202554</v>
       </c>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="13" t="s">
+      <c r="AA9" s="2">
+        <f t="shared" ref="AA9:AA16" si="11">1/LN(10)*SQRT((Z$7/Y$7)^2 +(Z9/Y9)^2)</f>
+        <v>1.1349388874658151E-3</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" si="7"/>
+        <v>0.6971404738537087</v>
+      </c>
+      <c r="AC9" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="AD9">
+        <f t="shared" si="8"/>
+        <v>0.25154963530871755</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>700</v>
       </c>
-      <c r="B10" s="12">
-        <f t="shared" si="5"/>
+      <c r="B10" s="2">
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="2">
         <v>181853</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="2">
         <v>181775</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>181814</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="2">
+        <f t="shared" si="5"/>
+        <v>0.15903600709586133</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="2">
         <v>85738</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="2">
         <v>85270</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="2">
         <v>85281</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="2">
         <v>85128</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="2">
         <v>85091</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="2">
         <v>84930</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="2">
         <f t="shared" si="1"/>
         <v>85239.666666666672</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="2">
         <f t="shared" si="2"/>
         <v>276.1989621028049</v>
       </c>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="13" t="s">
+      <c r="P10" s="2">
+        <f t="shared" si="10"/>
+        <v>1.4445821828105061E-3</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="6"/>
+        <v>0.40908324113626832</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="2">
         <v>27200</v>
       </c>
-      <c r="T10" s="12">
+      <c r="T10" s="2">
         <v>27006</v>
       </c>
-      <c r="U10" s="12">
+      <c r="U10" s="2">
         <v>26900</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="2">
         <v>27009</v>
       </c>
-      <c r="W10" s="12">
+      <c r="W10" s="2">
         <v>26927</v>
       </c>
-      <c r="X10" s="12">
+      <c r="X10" s="2">
         <v>26899</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="Y10" s="2">
         <f t="shared" si="3"/>
         <v>26990.166666666668</v>
       </c>
-      <c r="Z10" s="12">
+      <c r="Z10" s="2">
         <f t="shared" si="4"/>
         <v>114.07614416111139</v>
       </c>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="13" t="s">
+      <c r="AA10" s="2">
+        <f t="shared" si="11"/>
+        <v>1.8431245772986672E-3</v>
+      </c>
+      <c r="AB10" s="2">
+        <f t="shared" si="7"/>
+        <v>0.6210829987721741</v>
+      </c>
+      <c r="AC10" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="AD10">
+        <f t="shared" si="8"/>
+        <v>0.21199975763590578</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>750</v>
       </c>
-      <c r="B11" s="12">
-        <f t="shared" si="5"/>
+      <c r="B11" s="2">
+        <f t="shared" si="9"/>
         <v>31.733333333333334</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="2">
         <v>189596</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="2">
         <v>189764</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>189680</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14064178774352937</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="2">
         <v>90358</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="2">
         <v>90396</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="2">
         <v>90320</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="2">
         <v>90417</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="2">
         <v>90306</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="2">
         <v>90415</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="2">
         <f t="shared" si="1"/>
         <v>90368.666666666672</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="2">
         <f t="shared" si="2"/>
         <v>48.247970596354271</v>
       </c>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="13" t="s">
+      <c r="P11" s="2">
+        <f t="shared" si="10"/>
+        <v>4.0036191200286609E-4</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="6"/>
+        <v>0.38370710927111157</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="2">
         <v>28287</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T11" s="2">
         <v>28283</v>
       </c>
-      <c r="U11" s="12">
+      <c r="U11" s="2">
         <v>28283</v>
       </c>
-      <c r="V11" s="12">
+      <c r="V11" s="2">
         <v>28267</v>
       </c>
-      <c r="W11" s="12">
+      <c r="W11" s="2">
         <v>28243</v>
       </c>
-      <c r="X11" s="12">
+      <c r="X11" s="2">
         <v>28268</v>
       </c>
-      <c r="Y11" s="12">
+      <c r="Y11" s="2">
         <f t="shared" si="3"/>
         <v>28271.833333333332</v>
       </c>
-      <c r="Z11" s="12">
+      <c r="Z11" s="2">
         <f t="shared" si="4"/>
         <v>16.424575083291096</v>
       </c>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="13" t="s">
+      <c r="AA11" s="2">
+        <f t="shared" si="11"/>
+        <v>3.0233694480656605E-4</v>
+      </c>
+      <c r="AB11" s="2">
+        <f t="shared" si="7"/>
+        <v>0.60093459320420772</v>
+      </c>
+      <c r="AC11" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="AD11">
+        <f t="shared" si="8"/>
+        <v>0.21722748393309615</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>800</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="2">
+        <f t="shared" si="9"/>
+        <v>29.750000000000004</v>
+      </c>
+      <c r="C12" s="2">
+        <v>192844</v>
+      </c>
+      <c r="D12" s="2">
+        <v>192841</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>192842.5</v>
+      </c>
+      <c r="F12" s="2">
         <f t="shared" si="5"/>
-        <v>29.750000000000004</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12" t="e">
+        <v>0.1334605756954369</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="2">
+        <v>94303</v>
+      </c>
+      <c r="I12" s="2">
+        <v>94520</v>
+      </c>
+      <c r="J12" s="2">
+        <v>94513</v>
+      </c>
+      <c r="K12" s="2">
+        <v>94536</v>
+      </c>
+      <c r="L12" s="2">
+        <v>94541</v>
+      </c>
+      <c r="M12" s="2">
+        <v>94506</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="1"/>
+        <v>94486.5</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="2"/>
+        <v>90.881791355584539</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="10"/>
+        <v>5.3011383860770435E-4</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="6"/>
+        <v>0.36435522184633301</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="2">
+        <v>30454</v>
+      </c>
+      <c r="T12" s="2">
+        <v>30501</v>
+      </c>
+      <c r="U12" s="2">
+        <v>30521</v>
+      </c>
+      <c r="V12" s="2">
+        <v>30516</v>
+      </c>
+      <c r="W12" s="2">
+        <v>30505</v>
+      </c>
+      <c r="X12" s="2">
+        <v>30490</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="3"/>
+        <v>30497.833333333332</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="4"/>
+        <v>24.128130194166864</v>
+      </c>
+      <c r="AA12" s="2">
+        <f t="shared" si="11"/>
+        <v>3.8184221639170303E-4</v>
+      </c>
+      <c r="AB12" s="2">
+        <f t="shared" si="7"/>
+        <v>0.56801957841347095</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="8"/>
+        <v>0.20366435656713794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>850</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="C13" s="2">
+        <v>202181</v>
+      </c>
+      <c r="D13" s="2">
+        <v>202410</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12" t="e">
+        <v>202295.5</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="5"/>
+        <v>0.11267710658005403</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="2">
+        <v>100118</v>
+      </c>
+      <c r="I13" s="2">
+        <v>99836</v>
+      </c>
+      <c r="J13" s="2">
+        <v>99522</v>
+      </c>
+      <c r="K13" s="2">
+        <v>99661</v>
+      </c>
+      <c r="L13" s="2">
+        <v>99635</v>
+      </c>
+      <c r="M13" s="2">
+        <v>99219</v>
+      </c>
+      <c r="N13" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="12" t="e">
+        <v>99665.166666666672</v>
+      </c>
+      <c r="O13" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12" t="e">
+        <v>301.57282149866666</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="10"/>
+        <v>1.3540391076023236E-3</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="6"/>
+        <v>0.34118158650375002</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="2">
+        <v>33497</v>
+      </c>
+      <c r="T13" s="2">
+        <v>33421</v>
+      </c>
+      <c r="U13" s="2">
+        <v>33120</v>
+      </c>
+      <c r="V13" s="2">
+        <v>33079</v>
+      </c>
+      <c r="W13" s="2">
+        <v>32881</v>
+      </c>
+      <c r="X13" s="2">
+        <v>33069</v>
+      </c>
+      <c r="Y13" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z12" s="12" t="e">
+        <v>33177.833333333336</v>
+      </c>
+      <c r="Z13" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
+        <v>234.1216920036814</v>
+      </c>
+      <c r="AA13" s="2">
+        <f t="shared" si="11"/>
+        <v>3.0691534240905533E-3</v>
+      </c>
+      <c r="AB13" s="2">
+        <f t="shared" si="7"/>
+        <v>0.53144054397692098</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="8"/>
+        <v>0.19025895747317095</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>850</v>
-      </c>
-      <c r="B13" s="12">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>900</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="9"/>
+        <v>26.444444444444443</v>
+      </c>
+      <c r="C14" s="2">
+        <v>202967</v>
+      </c>
+      <c r="D14" s="2">
+        <v>203418</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>203192.5</v>
+      </c>
+      <c r="F14" s="2">
         <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12" t="e">
+        <v>0.11075565496756012</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="2">
+        <v>104001</v>
+      </c>
+      <c r="I14" s="2">
+        <v>104061</v>
+      </c>
+      <c r="J14" s="2">
+        <v>104010</v>
+      </c>
+      <c r="K14" s="2">
+        <v>104019</v>
+      </c>
+      <c r="L14" s="2">
+        <v>103837</v>
+      </c>
+      <c r="M14" s="2">
+        <v>103939</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="1"/>
+        <v>103977.83333333333</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="2"/>
+        <v>79.403820227156999</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="10"/>
+        <v>4.6531705446117535E-4</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="6"/>
+        <v>0.32278422039348187</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" s="2">
+        <v>35638</v>
+      </c>
+      <c r="T14" s="2">
+        <v>35746</v>
+      </c>
+      <c r="U14" s="2">
+        <v>35745</v>
+      </c>
+      <c r="V14" s="2">
+        <v>35836</v>
+      </c>
+      <c r="W14" s="2">
+        <v>35771</v>
+      </c>
+      <c r="X14" s="2">
+        <v>35698</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="3"/>
+        <v>35739</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="4"/>
+        <v>66.932802122726045</v>
+      </c>
+      <c r="AA14" s="2">
+        <f t="shared" si="11"/>
+        <v>8.3024029873663893E-4</v>
+      </c>
+      <c r="AB14" s="2">
+        <f t="shared" si="7"/>
+        <v>0.49914616864060568</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="8"/>
+        <v>0.17636194824712381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>950</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="9"/>
+        <v>25.052631578947366</v>
+      </c>
+      <c r="C15" s="2">
+        <v>198658</v>
+      </c>
+      <c r="D15" s="2">
+        <v>198711</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12" t="e">
+        <v>198684.5</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="5"/>
+        <v>0.12049934095481662</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="2">
+        <v>106086</v>
+      </c>
+      <c r="I15" s="2">
+        <v>106270</v>
+      </c>
+      <c r="J15" s="2">
+        <v>106221</v>
+      </c>
+      <c r="K15" s="2">
+        <v>106317</v>
+      </c>
+      <c r="L15" s="2">
+        <v>106048</v>
+      </c>
+      <c r="M15" s="2">
+        <v>105964</v>
+      </c>
+      <c r="N15" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="12" t="e">
+        <v>106151</v>
+      </c>
+      <c r="O15" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12" t="e">
+        <v>138.86684269471959</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="10"/>
+        <v>6.5522047579667146E-4</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="6"/>
+        <v>0.31380089404386935</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" s="2">
+        <v>39645</v>
+      </c>
+      <c r="T15" s="2">
+        <v>39577</v>
+      </c>
+      <c r="U15" s="2">
+        <v>39590</v>
+      </c>
+      <c r="V15" s="2">
+        <v>39578</v>
+      </c>
+      <c r="W15" s="2">
+        <v>39682</v>
+      </c>
+      <c r="X15" s="2">
+        <v>39599</v>
+      </c>
+      <c r="Y15" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z13" s="12" t="e">
+        <v>39611.833333333336</v>
+      </c>
+      <c r="Z15" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
+        <v>42.480191462217618</v>
+      </c>
+      <c r="AA15" s="2">
+        <f t="shared" si="11"/>
+        <v>4.9463750185199629E-4</v>
+      </c>
+      <c r="AB15" s="2">
+        <f t="shared" si="7"/>
+        <v>0.45446362205472712</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="8"/>
+        <v>0.14066272801085777</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>900</v>
-      </c>
-      <c r="B14" s="12">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="9"/>
+        <v>23.8</v>
+      </c>
+      <c r="C16" s="2">
+        <v>208030</v>
+      </c>
+      <c r="D16" s="2">
+        <v>209051</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>208540.5</v>
+      </c>
+      <c r="F16" s="2">
         <f t="shared" si="5"/>
-        <v>26.444444444444443</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12" t="e">
+        <v>9.9472918236205021E-2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="2">
+        <v>109508</v>
+      </c>
+      <c r="I16" s="2">
+        <v>109536</v>
+      </c>
+      <c r="J16" s="2">
+        <v>109458</v>
+      </c>
+      <c r="K16" s="2">
+        <v>109414</v>
+      </c>
+      <c r="L16" s="2">
+        <v>109387</v>
+      </c>
+      <c r="M16" s="2">
+        <v>109402</v>
+      </c>
+      <c r="N16" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" s="12" t="e">
+        <v>109450.83333333333</v>
+      </c>
+      <c r="O16" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12" t="e">
+        <v>60.644593053846656</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="10"/>
+        <v>4.0550036463868013E-4</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="6"/>
+        <v>0.30050591132046572</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" s="2">
+        <v>38543</v>
+      </c>
+      <c r="T16" s="2">
+        <v>38526</v>
+      </c>
+      <c r="U16" s="2">
+        <v>38468</v>
+      </c>
+      <c r="V16" s="2">
+        <v>38499</v>
+      </c>
+      <c r="W16" s="2">
+        <v>38494</v>
+      </c>
+      <c r="X16" s="2">
+        <v>38498</v>
+      </c>
+      <c r="Y16" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z14" s="12" t="e">
+        <v>38504.666666666664</v>
+      </c>
+      <c r="Z16" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>950</v>
-      </c>
-      <c r="B15" s="12">
-        <f t="shared" si="5"/>
-        <v>25.052631578947366</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O15" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z15" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>1000</v>
-      </c>
-      <c r="B16" s="12">
-        <f t="shared" si="5"/>
-        <v>23.8</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z16" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
+        <v>26.303358467440361</v>
+      </c>
+      <c r="AA16" s="2">
+        <f t="shared" si="11"/>
+        <v>3.4024514482287757E-4</v>
+      </c>
+      <c r="AB16" s="2">
+        <f t="shared" si="7"/>
+        <v>0.4667751970700823</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="8"/>
+        <v>0.16626928574961658</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1672,5 +4114,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/hacking_the_simplespectro/experiments/Results_Blue53_Experiment_4.xlsx
+++ b/hacking_the_simplespectro/experiments/Results_Blue53_Experiment_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann\simple-spectro\hacking_the_simplespectro\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE553E6-1E08-475A-B867-E8F13ABB643A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B798AD-50EF-4F08-8F3F-6CB905DBC027}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{2E15E8AD-55F4-4271-992C-880145D947C9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>Measurements</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>blue 1</t>
-  </si>
-  <si>
-    <t>blue 2 (UV)</t>
   </si>
   <si>
     <t>I blank</t>
@@ -120,9 +117,6 @@
     <t>Abs. diff.</t>
   </si>
   <si>
-    <t>Abs. diff. norm.</t>
-  </si>
-  <si>
     <t>thickness1</t>
   </si>
   <si>
@@ -131,12 +125,48 @@
   <si>
     <t>thickness2.1</t>
   </si>
+  <si>
+    <t>Uncertainty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity </t>
+  </si>
+  <si>
+    <t>abs. uncertainty</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>mass of colorant</t>
+  </si>
+  <si>
+    <t>Uncertainty of the reading</t>
+  </si>
+  <si>
+    <t>volume of water</t>
+  </si>
+  <si>
+    <t>half of the resolution of the graduated cylinder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentration uncertainty [mg/L] </t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>blue 2 / UV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +189,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -174,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -280,16 +318,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -301,6 +355,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,7 +377,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,8 +523,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.17606162105118264"/>
-                  <c:y val="6.104467706770518E-2"/>
+                  <c:x val="-0.18424440067974002"/>
+                  <c:y val="9.9370385127592137E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -493,9 +557,203 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$AH$7:$AH$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16666666854166667</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.15640765172716531</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.14693356657471621</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.13828334361095193</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.13042150956130663</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.12328452427882508</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.11680109142273933</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.11090129322359513</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.10552044133313331</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$AH$7:$AH$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16666666854166667</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.15640765172716531</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.14693356657471621</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.13828334361095193</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.13042150956130663</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.12328452427882508</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.11680109142273933</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.11090129322359513</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.10552044133313331</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$AF$7:$AF$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1568142353637991E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.4370360712748619E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.3417783606344894E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.0169441772612866E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.5331780941768559E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.3545677285640343E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>9.5174519427141204E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.2096292860372208E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.2933666441844316E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$AF$7:$AF$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1568142353637991E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.4370360712748619E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.3417783606344894E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.0169441772612866E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.5331780941768559E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.3545677285640343E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>9.5174519427141204E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.2096292860372208E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.2933666441844316E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$16</c:f>
+              <c:f>Sheet1!$C$7:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -534,7 +792,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AD$7:$AD$16</c:f>
+              <c:f>Sheet1!$AE$7:$AE$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -610,6 +868,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Concentration</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" baseline="0"/>
+                  <a:t> [mg/L]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -672,6 +990,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Absorbance [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -922,7 +1295,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$16</c:f>
+              <c:f>Sheet1!$C$7:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -961,7 +1334,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$7:$F$16</c:f>
+              <c:f>Sheet1!$G$7:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1037,6 +1410,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Concentration [mg/L]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1099,6 +1527,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Absorbance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" baseline="0"/>
+                  <a:t> [-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2308,14 +2796,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>692368</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>148048</xdr:rowOff>
+      <xdr:rowOff>83127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>141477</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>235527</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>27710</xdr:rowOff>
     </xdr:to>
@@ -2344,16 +2832,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304798</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:rowOff>101745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>387926</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2678,308 +3166,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A654142-BD20-4976-A826-EE0681333006}">
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AQ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="55" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AB58" sqref="AB58"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="44.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:41" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AH1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AO1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AM1" t="s">
-        <v>33</v>
+      <c r="C2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AH2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO2">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AF2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL2" t="s">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AH3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN3" t="s">
         <v>32</v>
       </c>
-      <c r="AM2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AF3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG3">
-        <v>0.1</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM3">
+      <c r="AO3">
         <f>34-23.5</f>
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="11" t="s">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14" t="s">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AH4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI4" s="5">
         <v>5</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AF4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG4">
-        <v>2.5</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>26</v>
+      <c r="AJ4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="O5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="S5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AE5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -2987,1130 +3499,1293 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>207201</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>207365</v>
       </c>
-      <c r="E6" s="2">
-        <f>AVERAGE(C6:D6)</f>
+      <c r="F6" s="2">
+        <f>AVERAGE(D6:E6)</f>
         <v>207283</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2">
+        <v>422160</v>
+      </c>
+      <c r="J6" s="2">
+        <v>422428</v>
+      </c>
+      <c r="K6" s="2">
+        <v>422491</v>
+      </c>
+      <c r="L6" s="2">
+        <v>422498</v>
+      </c>
+      <c r="M6" s="2">
+        <v>422648</v>
+      </c>
+      <c r="N6" s="2">
+        <v>422600</v>
+      </c>
+      <c r="O6" s="2">
+        <f>AVERAGE(I6:N6)</f>
+        <v>422470.83333333331</v>
+      </c>
+      <c r="P6" s="2">
+        <f>STDEV(I6:N6)</f>
+        <v>171.85391082738462</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="2">
+        <v>245963</v>
+      </c>
+      <c r="U6" s="2">
+        <v>246162</v>
+      </c>
+      <c r="V6" s="2">
+        <v>246251</v>
+      </c>
+      <c r="W6" s="2">
+        <v>246250</v>
+      </c>
+      <c r="X6" s="2">
+        <v>246310</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>246318</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>AVERAGE(T6:Y6)</f>
+        <v>246209</v>
+      </c>
+      <c r="AA6" s="2">
+        <f>STDEV(T6:Y6)</f>
+        <v>132.85480796719403</v>
+      </c>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AH6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>600</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>262044</v>
+      </c>
+      <c r="E7" s="2">
+        <v>262393</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ref="F7:F16" si="0">AVERAGE(D7:E7)</f>
+        <v>262218.5</v>
+      </c>
+      <c r="G7" s="2">
+        <f>LOG10(F$7/F7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2">
+        <v>218883</v>
+      </c>
+      <c r="J7" s="2">
+        <v>218733</v>
+      </c>
+      <c r="K7" s="2">
+        <v>218584</v>
+      </c>
+      <c r="L7" s="2">
+        <v>218599</v>
+      </c>
+      <c r="M7" s="2">
+        <v>218637</v>
+      </c>
+      <c r="N7" s="2">
+        <v>218390</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" ref="O7:O16" si="1">AVERAGE(I7:N7)</f>
+        <v>218637.66666666666</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" ref="P7:P16" si="2">STDEV(I7:N7)</f>
+        <v>164.31149280152826</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <f>LOG10(O$7/O7)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="2">
-        <v>422160</v>
-      </c>
-      <c r="I6" s="2">
-        <v>422428</v>
-      </c>
-      <c r="J6" s="2">
-        <v>422491</v>
-      </c>
-      <c r="K6" s="2">
-        <v>422498</v>
-      </c>
-      <c r="L6" s="2">
-        <v>422648</v>
-      </c>
-      <c r="M6" s="2">
-        <v>422600</v>
-      </c>
-      <c r="N6" s="2">
-        <f>AVERAGE(H6:M6)</f>
-        <v>422470.83333333331</v>
-      </c>
-      <c r="O6" s="2">
-        <f>STDEV(H6:M6)</f>
-        <v>171.85391082738462</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="3" t="s">
+      <c r="T7" s="2">
+        <v>112873</v>
+      </c>
+      <c r="U7" s="2">
+        <v>112772</v>
+      </c>
+      <c r="V7" s="2">
+        <v>112812</v>
+      </c>
+      <c r="W7" s="2">
+        <v>112786</v>
+      </c>
+      <c r="X7" s="2">
+        <v>112774</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>112751</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" ref="Z7:Z16" si="3">AVERAGE(T7:Y7)</f>
+        <v>112794.66666666667</v>
+      </c>
+      <c r="AA7" s="2">
+        <f t="shared" ref="AA7:AA16" si="4">STDEV(T7:Y7)</f>
+        <v>43.265074444251987</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
+        <f>LOG10(Z$7/Z7)</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="2">
-        <v>245963</v>
-      </c>
-      <c r="T6" s="2">
-        <v>246162</v>
-      </c>
-      <c r="U6" s="2">
-        <v>246251</v>
-      </c>
-      <c r="V6" s="2">
-        <v>246250</v>
-      </c>
-      <c r="W6" s="2">
-        <v>246310</v>
-      </c>
-      <c r="X6" s="2">
-        <v>246318</v>
-      </c>
-      <c r="Y6" s="2">
-        <f>AVERAGE(S6:X6)</f>
-        <v>246209</v>
-      </c>
-      <c r="Z6" s="2">
-        <f>STDEV(S6:X6)</f>
-        <v>132.85480796719403</v>
-      </c>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="3" t="s">
-        <v>21</v>
+      <c r="AE7" s="2">
+        <f>AC7-R7</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2">
+        <f>SQRT(AB7^2+Q7^2)</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
         <v>600</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>262044</v>
-      </c>
-      <c r="D7" s="2">
-        <v>262393</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" ref="E7:E16" si="0">AVERAGE(C7:D7)</f>
-        <v>262218.5</v>
-      </c>
-      <c r="F7" s="2">
-        <f>LOG10(E$7/E7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="2">
-        <v>218883</v>
-      </c>
-      <c r="I7" s="2">
-        <v>218733</v>
-      </c>
-      <c r="J7" s="2">
-        <v>218584</v>
-      </c>
-      <c r="K7" s="2">
-        <v>218599</v>
-      </c>
-      <c r="L7" s="2">
-        <v>218637</v>
-      </c>
-      <c r="M7" s="2">
-        <v>218390</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" ref="N7:N16" si="1">AVERAGE(H7:M7)</f>
-        <v>218637.66666666666</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" ref="O7:O16" si="2">STDEV(H7:M7)</f>
-        <v>164.31149280152826</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <f>LOG10(N$7/N7)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S7" s="2">
-        <v>112873</v>
-      </c>
-      <c r="T7" s="2">
-        <v>112772</v>
-      </c>
-      <c r="U7" s="2">
-        <v>112812</v>
-      </c>
-      <c r="V7" s="2">
-        <v>112786</v>
-      </c>
-      <c r="W7" s="2">
-        <v>112774</v>
-      </c>
-      <c r="X7" s="2">
-        <v>112751</v>
-      </c>
-      <c r="Y7" s="2">
-        <f t="shared" ref="Y7:Y16" si="3">AVERAGE(S7:X7)</f>
-        <v>112794.66666666667</v>
-      </c>
-      <c r="Z7" s="2">
-        <f t="shared" ref="Z7:Z16" si="4">STDEV(S7:X7)</f>
-        <v>43.265074444251987</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2">
-        <f>LOG10(Y$7/Y7)</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD7">
-        <f>AB7-Q7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>600</v>
-      </c>
-      <c r="B8" s="2">
-        <f>23.8/A8*1000</f>
+      <c r="C8" s="2">
+        <f>23.8/B8*1000</f>
         <v>39.666666666666671</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>171212</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>171392</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>171302</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" ref="F8:F16" si="5">LOG10(E$7/E8)</f>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:G16" si="5">LOG10(F$7/F8)</f>
         <v>0.18490089520586642</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2">
         <v>70377</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>70482</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>70443</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>70532</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>70586</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>70612</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <f t="shared" si="1"/>
         <v>70505.333333333328</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <f t="shared" si="2"/>
         <v>88.876693607867011</v>
       </c>
-      <c r="P8" s="2">
-        <f>1/LN(10)*SQRT((O$7/N$7)^2 +(O8/N8)^2)</f>
+      <c r="Q8" s="2">
+        <f>1/LN(10)*SQRT((P$7/O$7)^2 +(P8/O8)^2)</f>
         <v>6.3736583028953708E-4</v>
       </c>
-      <c r="Q8" s="2">
-        <f t="shared" ref="Q8:Q16" si="6">LOG10(N$7/N8)</f>
+      <c r="R8" s="2">
+        <f t="shared" ref="R8:R16" si="6">LOG10(O$7/O8)</f>
         <v>0.49150301367712251</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="2">
+      <c r="S8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="2">
         <v>19883</v>
       </c>
-      <c r="T8" s="2">
+      <c r="U8" s="2">
         <v>19984</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <v>19968</v>
       </c>
-      <c r="V8" s="2">
+      <c r="W8" s="2">
         <v>19989</v>
       </c>
-      <c r="W8" s="2">
+      <c r="X8" s="2">
         <v>19974</v>
       </c>
-      <c r="X8" s="2">
+      <c r="Y8" s="2">
         <v>20008</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Z8" s="2">
         <f t="shared" si="3"/>
         <v>19967.666666666668</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AA8" s="2">
         <f t="shared" si="4"/>
         <v>43.720323268094283</v>
       </c>
-      <c r="AA8" s="2">
-        <f>1/LN(10)*SQRT((Z$7/Y$7)^2 +(Z8/Y8)^2)</f>
+      <c r="AB8" s="2">
+        <f>1/LN(10)*SQRT((AA$7/Z$7)^2 +(AA8/Z8)^2)</f>
         <v>9.6539317043350796E-4</v>
       </c>
-      <c r="AB8" s="2">
-        <f t="shared" ref="AB8:AB16" si="7">LOG10(Y$7/Y8)</f>
+      <c r="AC8" s="2">
+        <f t="shared" ref="AC8:AC16" si="7">LOG10(Z$7/Z8)</f>
         <v>0.75196124704310718</v>
       </c>
-      <c r="AC8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" ref="AD8:AD16" si="8">AB8-Q8</f>
+      <c r="AD8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE8" s="2">
+        <f t="shared" ref="AE8:AE16" si="8">AC8-R8</f>
         <v>0.26045823336598467</v>
       </c>
+      <c r="AF8" s="2">
+        <f t="shared" ref="AF8:AF16" si="9">SQRT(AB8^2+Q8^2)</f>
+        <v>1.1568142353637991E-3</v>
+      </c>
+      <c r="AH8" s="2">
+        <f>((0.1/B8*1000)^2 + (23.8/(B8/1000)^2*SQRT((A8 - 2)*0.0005^2) + 0.005^2)^2)^(1/2)</f>
+        <v>0.16666666854166667</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
         <v>650</v>
       </c>
-      <c r="B9" s="2">
-        <f t="shared" ref="B9:B16" si="9">23.8/A9*1000</f>
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:C16" si="10">23.8/B9*1000</f>
         <v>36.61538461538462</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>170551</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>170532</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>170541.5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <f t="shared" si="5"/>
         <v>0.18683325020676919</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="2">
         <v>78120</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>78333</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>78339</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>78401</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>78564</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>78446</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <f t="shared" si="1"/>
         <v>78367.166666666672</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <f t="shared" si="2"/>
         <v>147.75305975399178</v>
       </c>
-      <c r="P9" s="2">
-        <f t="shared" ref="P9:P16" si="10">1/LN(10)*SQRT((O$7/N$7)^2 +(O9/N9)^2)</f>
+      <c r="Q9" s="2">
+        <f t="shared" ref="Q9:Q16" si="11">1/LN(10)*SQRT((P$7/O$7)^2 +(P9/O9)^2)</f>
         <v>8.8146831585879924E-4</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <f t="shared" si="6"/>
         <v>0.44559083854499115</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="2">
+      <c r="S9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="2">
         <v>22633</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U9" s="2">
         <v>22590</v>
       </c>
-      <c r="U9" s="2">
+      <c r="V9" s="2">
         <v>22618</v>
       </c>
-      <c r="V9" s="2">
+      <c r="W9" s="2">
         <v>22635</v>
       </c>
-      <c r="W9" s="2">
+      <c r="X9" s="2">
         <v>22702</v>
       </c>
-      <c r="X9" s="2">
+      <c r="Y9" s="2">
         <v>22747</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Z9" s="2">
         <f t="shared" si="3"/>
         <v>22654.166666666668</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="AA9" s="2">
         <f t="shared" si="4"/>
         <v>58.560794621202554</v>
       </c>
-      <c r="AA9" s="2">
-        <f t="shared" ref="AA9:AA16" si="11">1/LN(10)*SQRT((Z$7/Y$7)^2 +(Z9/Y9)^2)</f>
+      <c r="AB9" s="2">
+        <f t="shared" ref="AB9:AB16" si="12">1/LN(10)*SQRT((AA$7/Z$7)^2 +(AA9/Z9)^2)</f>
         <v>1.1349388874658151E-3</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AC9" s="2">
         <f t="shared" si="7"/>
         <v>0.6971404738537087</v>
       </c>
-      <c r="AC9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD9">
+      <c r="AD9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE9" s="2">
         <f t="shared" si="8"/>
         <v>0.25154963530871755</v>
       </c>
+      <c r="AF9" s="2">
+        <f t="shared" si="9"/>
+        <v>1.4370360712748619E-3</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" ref="AH9:AH16" si="13">((0.1/B9*1000)^2 + (23.8/(B9/1000)^2*SQRT((A9 - 2)*0.0005^2) + 0.005^2)^2)^(1/2)</f>
+        <v>0.15640765172716531</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
         <v>700</v>
       </c>
-      <c r="B10" s="2">
-        <f t="shared" si="9"/>
+      <c r="C10" s="2">
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>181853</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>181775</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>181814</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <f t="shared" si="5"/>
         <v>0.15903600709586133</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="2">
         <v>85738</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>85270</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>85281</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>85128</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>85091</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>84930</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <f t="shared" si="1"/>
         <v>85239.666666666672</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <f t="shared" si="2"/>
         <v>276.1989621028049</v>
       </c>
-      <c r="P10" s="2">
-        <f t="shared" si="10"/>
+      <c r="Q10" s="2">
+        <f t="shared" si="11"/>
         <v>1.4445821828105061E-3</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <f t="shared" si="6"/>
         <v>0.40908324113626832</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S10" s="2">
+      <c r="S10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="2">
         <v>27200</v>
       </c>
-      <c r="T10" s="2">
+      <c r="U10" s="2">
         <v>27006</v>
       </c>
-      <c r="U10" s="2">
+      <c r="V10" s="2">
         <v>26900</v>
       </c>
-      <c r="V10" s="2">
+      <c r="W10" s="2">
         <v>27009</v>
       </c>
-      <c r="W10" s="2">
+      <c r="X10" s="2">
         <v>26927</v>
       </c>
-      <c r="X10" s="2">
+      <c r="Y10" s="2">
         <v>26899</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Z10" s="2">
         <f t="shared" si="3"/>
         <v>26990.166666666668</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="AA10" s="2">
         <f t="shared" si="4"/>
         <v>114.07614416111139</v>
       </c>
-      <c r="AA10" s="2">
-        <f t="shared" si="11"/>
+      <c r="AB10" s="2">
+        <f t="shared" si="12"/>
         <v>1.8431245772986672E-3</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AC10" s="2">
         <f t="shared" si="7"/>
         <v>0.6210829987721741</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD10">
+      <c r="AD10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE10" s="2">
         <f t="shared" si="8"/>
         <v>0.21199975763590578</v>
       </c>
+      <c r="AF10" s="2">
+        <f t="shared" si="9"/>
+        <v>2.3417783606344894E-3</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="13"/>
+        <v>0.14693356657471621</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
         <v>750</v>
       </c>
-      <c r="B11" s="2">
-        <f t="shared" si="9"/>
+      <c r="C11" s="2">
+        <f t="shared" si="10"/>
         <v>31.733333333333334</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>189596</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>189764</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>189680</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <f t="shared" si="5"/>
         <v>0.14064178774352937</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2">
         <v>90358</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>90396</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>90320</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>90417</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>90306</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>90415</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <f t="shared" si="1"/>
         <v>90368.666666666672</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <f t="shared" si="2"/>
         <v>48.247970596354271</v>
       </c>
-      <c r="P11" s="2">
-        <f t="shared" si="10"/>
+      <c r="Q11" s="2">
+        <f t="shared" si="11"/>
         <v>4.0036191200286609E-4</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="R11" s="2">
         <f t="shared" si="6"/>
         <v>0.38370710927111157</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S11" s="2">
+      <c r="S11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="2">
         <v>28287</v>
-      </c>
-      <c r="T11" s="2">
-        <v>28283</v>
       </c>
       <c r="U11" s="2">
         <v>28283</v>
       </c>
       <c r="V11" s="2">
+        <v>28283</v>
+      </c>
+      <c r="W11" s="2">
         <v>28267</v>
       </c>
-      <c r="W11" s="2">
+      <c r="X11" s="2">
         <v>28243</v>
       </c>
-      <c r="X11" s="2">
+      <c r="Y11" s="2">
         <v>28268</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Z11" s="2">
         <f t="shared" si="3"/>
         <v>28271.833333333332</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="AA11" s="2">
         <f t="shared" si="4"/>
         <v>16.424575083291096</v>
       </c>
-      <c r="AA11" s="2">
-        <f t="shared" si="11"/>
+      <c r="AB11" s="2">
+        <f t="shared" si="12"/>
         <v>3.0233694480656605E-4</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AC11" s="2">
         <f t="shared" si="7"/>
         <v>0.60093459320420772</v>
       </c>
-      <c r="AC11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD11">
+      <c r="AD11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE11" s="2">
         <f t="shared" si="8"/>
         <v>0.21722748393309615</v>
       </c>
+      <c r="AF11" s="2">
+        <f t="shared" si="9"/>
+        <v>5.0169441772612866E-4</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="13"/>
+        <v>0.13828334361095193</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
         <v>800</v>
       </c>
-      <c r="B12" s="2">
-        <f t="shared" si="9"/>
+      <c r="C12" s="2">
+        <f t="shared" si="10"/>
         <v>29.750000000000004</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>192844</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>192841</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>192842.5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <f t="shared" si="5"/>
         <v>0.1334605756954369</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="2">
         <v>94303</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>94520</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>94513</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>94536</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>94541</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>94506</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <f t="shared" si="1"/>
         <v>94486.5</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <f t="shared" si="2"/>
         <v>90.881791355584539</v>
       </c>
-      <c r="P12" s="2">
-        <f t="shared" si="10"/>
+      <c r="Q12" s="2">
+        <f t="shared" si="11"/>
         <v>5.3011383860770435E-4</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="2">
         <f t="shared" si="6"/>
         <v>0.36435522184633301</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="2">
+      <c r="S12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="2">
         <v>30454</v>
       </c>
-      <c r="T12" s="2">
+      <c r="U12" s="2">
         <v>30501</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <v>30521</v>
       </c>
-      <c r="V12" s="2">
+      <c r="W12" s="2">
         <v>30516</v>
       </c>
-      <c r="W12" s="2">
+      <c r="X12" s="2">
         <v>30505</v>
       </c>
-      <c r="X12" s="2">
+      <c r="Y12" s="2">
         <v>30490</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Z12" s="2">
         <f t="shared" si="3"/>
         <v>30497.833333333332</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="AA12" s="2">
         <f t="shared" si="4"/>
         <v>24.128130194166864</v>
       </c>
-      <c r="AA12" s="2">
-        <f t="shared" si="11"/>
+      <c r="AB12" s="2">
+        <f t="shared" si="12"/>
         <v>3.8184221639170303E-4</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AC12" s="2">
         <f t="shared" si="7"/>
         <v>0.56801957841347095</v>
       </c>
-      <c r="AC12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD12">
+      <c r="AD12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE12" s="2">
         <f t="shared" si="8"/>
         <v>0.20366435656713794</v>
       </c>
+      <c r="AF12" s="2">
+        <f t="shared" si="9"/>
+        <v>6.5331780941768559E-4</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" si="13"/>
+        <v>0.13042150956130663</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2">
         <v>850</v>
       </c>
-      <c r="B13" s="2">
-        <f t="shared" si="9"/>
+      <c r="C13" s="2">
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>202181</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>202410</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>202295.5</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <f t="shared" si="5"/>
         <v>0.11267710658005403</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2">
         <v>100118</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>99836</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>99522</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>99661</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>99635</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>99219</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <f t="shared" si="1"/>
         <v>99665.166666666672</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <f t="shared" si="2"/>
         <v>301.57282149866666</v>
       </c>
-      <c r="P13" s="2">
-        <f t="shared" si="10"/>
+      <c r="Q13" s="2">
+        <f t="shared" si="11"/>
         <v>1.3540391076023236E-3</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="R13" s="2">
         <f t="shared" si="6"/>
         <v>0.34118158650375002</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S13" s="2">
+      <c r="S13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="2">
         <v>33497</v>
       </c>
-      <c r="T13" s="2">
+      <c r="U13" s="2">
         <v>33421</v>
       </c>
-      <c r="U13" s="2">
+      <c r="V13" s="2">
         <v>33120</v>
       </c>
-      <c r="V13" s="2">
+      <c r="W13" s="2">
         <v>33079</v>
       </c>
-      <c r="W13" s="2">
+      <c r="X13" s="2">
         <v>32881</v>
       </c>
-      <c r="X13" s="2">
+      <c r="Y13" s="2">
         <v>33069</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Z13" s="2">
         <f t="shared" si="3"/>
         <v>33177.833333333336</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="AA13" s="2">
         <f t="shared" si="4"/>
         <v>234.1216920036814</v>
       </c>
-      <c r="AA13" s="2">
-        <f t="shared" si="11"/>
+      <c r="AB13" s="2">
+        <f t="shared" si="12"/>
         <v>3.0691534240905533E-3</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AC13" s="2">
         <f t="shared" si="7"/>
         <v>0.53144054397692098</v>
       </c>
-      <c r="AC13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD13">
+      <c r="AD13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE13" s="2">
         <f t="shared" si="8"/>
         <v>0.19025895747317095</v>
       </c>
+      <c r="AF13" s="2">
+        <f t="shared" si="9"/>
+        <v>3.3545677285640343E-3</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="13"/>
+        <v>0.12328452427882508</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
         <v>900</v>
       </c>
-      <c r="B14" s="2">
-        <f t="shared" si="9"/>
+      <c r="C14" s="2">
+        <f t="shared" si="10"/>
         <v>26.444444444444443</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>202967</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>203418</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>203192.5</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <f t="shared" si="5"/>
         <v>0.11075565496756012</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2">
         <v>104001</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>104061</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>104010</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>104019</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>103837</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>103939</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <f t="shared" si="1"/>
         <v>103977.83333333333</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <f t="shared" si="2"/>
         <v>79.403820227156999</v>
       </c>
-      <c r="P14" s="2">
-        <f t="shared" si="10"/>
+      <c r="Q14" s="2">
+        <f t="shared" si="11"/>
         <v>4.6531705446117535E-4</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="2">
         <f t="shared" si="6"/>
         <v>0.32278422039348187</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S14" s="2">
+      <c r="S14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" s="2">
         <v>35638</v>
       </c>
-      <c r="T14" s="2">
+      <c r="U14" s="2">
         <v>35746</v>
       </c>
-      <c r="U14" s="2">
+      <c r="V14" s="2">
         <v>35745</v>
       </c>
-      <c r="V14" s="2">
+      <c r="W14" s="2">
         <v>35836</v>
       </c>
-      <c r="W14" s="2">
+      <c r="X14" s="2">
         <v>35771</v>
       </c>
-      <c r="X14" s="2">
+      <c r="Y14" s="2">
         <v>35698</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Z14" s="2">
         <f t="shared" si="3"/>
         <v>35739</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="AA14" s="2">
         <f t="shared" si="4"/>
         <v>66.932802122726045</v>
       </c>
-      <c r="AA14" s="2">
-        <f t="shared" si="11"/>
+      <c r="AB14" s="2">
+        <f t="shared" si="12"/>
         <v>8.3024029873663893E-4</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AC14" s="2">
         <f t="shared" si="7"/>
         <v>0.49914616864060568</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD14">
+      <c r="AD14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE14" s="2">
         <f t="shared" si="8"/>
         <v>0.17636194824712381</v>
       </c>
+      <c r="AF14" s="2">
+        <f t="shared" si="9"/>
+        <v>9.5174519427141204E-4</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" si="13"/>
+        <v>0.11680109142273933</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2">
         <v>950</v>
       </c>
-      <c r="B15" s="2">
-        <f t="shared" si="9"/>
+      <c r="C15" s="2">
+        <f t="shared" si="10"/>
         <v>25.052631578947366</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>198658</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>198711</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>198684.5</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <f t="shared" si="5"/>
         <v>0.12049934095481662</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2">
         <v>106086</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>106270</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>106221</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>106317</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>106048</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>105964</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
         <f t="shared" si="1"/>
         <v>106151</v>
       </c>
-      <c r="O15" s="2">
+      <c r="P15" s="2">
         <f t="shared" si="2"/>
         <v>138.86684269471959</v>
       </c>
-      <c r="P15" s="2">
-        <f t="shared" si="10"/>
+      <c r="Q15" s="2">
+        <f t="shared" si="11"/>
         <v>6.5522047579667146E-4</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="R15" s="2">
         <f t="shared" si="6"/>
         <v>0.31380089404386935</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S15" s="2">
+      <c r="S15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="2">
         <v>39645</v>
       </c>
-      <c r="T15" s="2">
+      <c r="U15" s="2">
         <v>39577</v>
       </c>
-      <c r="U15" s="2">
+      <c r="V15" s="2">
         <v>39590</v>
       </c>
-      <c r="V15" s="2">
+      <c r="W15" s="2">
         <v>39578</v>
       </c>
-      <c r="W15" s="2">
+      <c r="X15" s="2">
         <v>39682</v>
       </c>
-      <c r="X15" s="2">
+      <c r="Y15" s="2">
         <v>39599</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="Z15" s="2">
         <f t="shared" si="3"/>
         <v>39611.833333333336</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="AA15" s="2">
         <f t="shared" si="4"/>
         <v>42.480191462217618</v>
       </c>
-      <c r="AA15" s="2">
-        <f t="shared" si="11"/>
+      <c r="AB15" s="2">
+        <f t="shared" si="12"/>
         <v>4.9463750185199629E-4</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AC15" s="2">
         <f t="shared" si="7"/>
         <v>0.45446362205472712</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD15">
+      <c r="AD15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE15" s="2">
         <f t="shared" si="8"/>
         <v>0.14066272801085777</v>
       </c>
+      <c r="AF15" s="2">
+        <f t="shared" si="9"/>
+        <v>8.2096292860372208E-4</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="13"/>
+        <v>0.11090129322359513</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
         <v>1000</v>
       </c>
-      <c r="B16" s="2">
-        <f t="shared" si="9"/>
+      <c r="C16" s="2">
+        <f t="shared" si="10"/>
         <v>23.8</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>208030</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>209051</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>208540.5</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <f t="shared" si="5"/>
         <v>9.9472918236205021E-2</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="2">
         <v>109508</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>109536</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>109458</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <v>109414</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>109387</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>109402</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <f t="shared" si="1"/>
         <v>109450.83333333333</v>
       </c>
-      <c r="O16" s="2">
+      <c r="P16" s="2">
         <f t="shared" si="2"/>
         <v>60.644593053846656</v>
       </c>
-      <c r="P16" s="2">
-        <f t="shared" si="10"/>
+      <c r="Q16" s="2">
+        <f t="shared" si="11"/>
         <v>4.0550036463868013E-4</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="R16" s="2">
         <f t="shared" si="6"/>
         <v>0.30050591132046572</v>
       </c>
-      <c r="R16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S16" s="2">
+      <c r="S16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" s="2">
         <v>38543</v>
       </c>
-      <c r="T16" s="2">
+      <c r="U16" s="2">
         <v>38526</v>
       </c>
-      <c r="U16" s="2">
+      <c r="V16" s="2">
         <v>38468</v>
       </c>
-      <c r="V16" s="2">
+      <c r="W16" s="2">
         <v>38499</v>
       </c>
-      <c r="W16" s="2">
+      <c r="X16" s="2">
         <v>38494</v>
       </c>
-      <c r="X16" s="2">
+      <c r="Y16" s="2">
         <v>38498</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="Z16" s="2">
         <f t="shared" si="3"/>
         <v>38504.666666666664</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="AA16" s="2">
         <f t="shared" si="4"/>
         <v>26.303358467440361</v>
       </c>
-      <c r="AA16" s="2">
-        <f t="shared" si="11"/>
+      <c r="AB16" s="2">
+        <f t="shared" si="12"/>
         <v>3.4024514482287757E-4</v>
       </c>
-      <c r="AB16" s="2">
+      <c r="AC16" s="2">
         <f t="shared" si="7"/>
         <v>0.4667751970700823</v>
       </c>
-      <c r="AC16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD16">
+      <c r="AD16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE16" s="2">
         <f t="shared" si="8"/>
         <v>0.16626928574961658</v>
       </c>
+      <c r="AF16" s="2">
+        <f t="shared" si="9"/>
+        <v>5.2933666441844316E-4</v>
+      </c>
+      <c r="AH16" s="2">
+        <f t="shared" si="13"/>
+        <v>0.10552044133313331</v>
+      </c>
+    </row>
+    <row r="19" spans="40:43" x14ac:dyDescent="0.3">
+      <c r="AN19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="40:43" x14ac:dyDescent="0.3">
+      <c r="AN20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO20">
+        <v>0.1</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="40:43" x14ac:dyDescent="0.3">
+      <c r="AN21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO21">
+        <v>2.5</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="40:43" x14ac:dyDescent="0.3">
+      <c r="AN22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO22" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AP22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ22" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="C2:AC2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:AC3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:R4"/>
-    <mergeCell ref="S4:AC4"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B1:AD1"/>
+    <mergeCell ref="D2:AD2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:AD3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:S4"/>
+    <mergeCell ref="T4:AD4"/>
+    <mergeCell ref="AH5:AK5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
